--- a/designDouments/プログラム設計書.xlsx
+++ b/designDouments/プログラム設計書.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="画面項目定義書(ログイン画面)" sheetId="4" r:id="rId1"/>
     <sheet name="画面項目定義書(ユーザ情報画面) " sheetId="5" r:id="rId2"/>
-    <sheet name="画面項目定義書(社員情報一覧画面) " sheetId="6" r:id="rId3"/>
+    <sheet name="画面項目定義書(社員一覧画面) " sheetId="6" r:id="rId3"/>
     <sheet name="画面項目定義書(社員情報編集画面)" sheetId="7" r:id="rId4"/>
     <sheet name="エラーメッセージ一覧" sheetId="8" r:id="rId5"/>
     <sheet name="model" sheetId="3" r:id="rId6"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="177">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -552,19 +552,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>社員情報一覧機能</t>
-    <rPh sb="0" eb="4">
-      <t>シャインジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザ情報編集機能</t>
     <rPh sb="3" eb="5">
       <t>ジョウホウ</t>
@@ -801,26 +788,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2-2. データベース(UserLoginテーブル)情報を更新へ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　　　2-2. データベース(UserLoginテーブル)情報を更新</t>
     <rPh sb="29" eb="31">
       <t>ジョウホウ</t>
     </rPh>
     <rPh sb="32" eb="34">
       <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　　2-3. データベース(UserLogin/Employeeテーブル)情報を取得</t>
-    <rPh sb="37" eb="39">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>シュトク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1235,11 +1208,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">　　社員情報画面へ
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>社員番号</t>
     <rPh sb="0" eb="2">
       <t>シャイン</t>
@@ -1308,10 +1276,6 @@
   </si>
   <si>
     <t>TEXT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CHER(8)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1375,6 +1339,31 @@
     </r>
     <rPh sb="20" eb="21">
       <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-2. データベース情報を更新へ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員一覧機能</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">　　社員一覧画面へ
+</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1921,9 +1910,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2024,6 +2010,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2061,7 +2048,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2127,7 +2114,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2200,7 +2187,7 @@
         <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2256,7 +2243,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0D18DF-025F-41DB-96BB-221B78F44C62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A0D18DF-025F-41DB-96BB-221B78F44C62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2329,7 +2316,7 @@
         <xdr:cNvPr id="6" name="波線 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F39EA783-011B-45FA-8D24-22224543DF13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F39EA783-011B-45FA-8D24-22224543DF13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2402,7 +2389,7 @@
         <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31E424DF-9DFC-43BB-A310-ABF1A5E85690}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31E424DF-9DFC-43BB-A310-ABF1A5E85690}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2458,7 +2445,7 @@
         <xdr:cNvPr id="8" name="フローチャート: 磁気ディスク 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2547,7 +2534,7 @@
         <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2602,7 +2589,7 @@
         <xdr:cNvPr id="10" name="テキスト ボックス 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2668,7 +2655,7 @@
         <xdr:cNvPr id="15" name="フローチャート: 磁気ディスク 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2726,22 +2713,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>611674</xdr:colOff>
+      <xdr:colOff>554524</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>59893</xdr:rowOff>
+      <xdr:rowOff>50368</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2749,7 +2736,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6640999" y="1704975"/>
+          <a:off x="6583849" y="1695450"/>
           <a:ext cx="998051" cy="612343"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2794,7 +2781,7 @@
         <xdr:cNvPr id="18" name="テキスト ボックス 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2849,31 +2836,31 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>599146</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>240558</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>4330</xdr:rowOff>
+      <xdr:rowOff>116390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>135895</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>65899</xdr:rowOff>
+      <xdr:colOff>460866</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9871</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="19825548">
-          <a:off x="5249587" y="1718830"/>
+        <a:xfrm rot="18916159">
+          <a:off x="5574558" y="1830890"/>
           <a:ext cx="903867" cy="229657"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2931,7 +2918,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3004,7 +2991,7 @@
         <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3060,7 +3047,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0D18DF-025F-41DB-96BB-221B78F44C62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A0D18DF-025F-41DB-96BB-221B78F44C62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3133,7 +3120,7 @@
         <xdr:cNvPr id="6" name="波線 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F39EA783-011B-45FA-8D24-22224543DF13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F39EA783-011B-45FA-8D24-22224543DF13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3209,7 +3196,7 @@
         <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31E424DF-9DFC-43BB-A310-ABF1A5E85690}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31E424DF-9DFC-43BB-A310-ABF1A5E85690}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3249,23 +3236,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>33670</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>145730</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>93832</xdr:rowOff>
+      <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>343069</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>455129</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>28789</xdr:rowOff>
+      <xdr:rowOff>67235</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="フローチャート: 磁気ディスク 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3273,8 +3260,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6051229" y="967891"/>
-          <a:ext cx="992958" cy="775398"/>
+          <a:off x="4796171" y="941294"/>
+          <a:ext cx="992958" cy="840441"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -3338,32 +3325,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>110931</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>154641</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>27214</xdr:colOff>
+      <xdr:colOff>331747</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>59893</xdr:rowOff>
+      <xdr:rowOff>44824</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="2"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4761372" y="1487181"/>
-          <a:ext cx="1283401" cy="623388"/>
+          <a:off x="5524500" y="1364876"/>
+          <a:ext cx="824806" cy="730624"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3392,22 +3381,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>490145</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>3809</xdr:rowOff>
+      <xdr:colOff>478939</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>59838</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>11598</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>66562</xdr:rowOff>
+      <xdr:colOff>392</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>122592</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="テキスト ボックス 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3415,7 +3404,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6507704" y="2054485"/>
+          <a:off x="6496498" y="2446691"/>
           <a:ext cx="888570" cy="230842"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3458,31 +3447,33 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>997325</xdr:colOff>
+      <xdr:colOff>414618</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
+      <xdr:rowOff>151280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>571501</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>112060</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>145730</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>33619</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="8" idx="2"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4616825" y="1333500"/>
-          <a:ext cx="1288676" cy="661148"/>
+          <a:off x="4034118" y="1361515"/>
+          <a:ext cx="762053" cy="722780"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3510,31 +3501,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>79194</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>111907</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>449918</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>77361</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>299502</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>5387</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>679575</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>140787</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="14" name="テキスト ボックス 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="19825548">
-          <a:off x="4729635" y="1322142"/>
+        <a:xfrm rot="18767331">
+          <a:off x="3732313" y="1456613"/>
           <a:ext cx="903867" cy="229657"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3574,6 +3565,98 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>331747</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>62752</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>641146</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="フローチャート: 磁気ディスク 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6349306" y="936811"/>
+          <a:ext cx="992958" cy="856130"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログインユーザ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>エンプロイテーブル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3597,7 +3680,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3670,7 +3753,7 @@
         <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3726,7 +3809,7 @@
         <xdr:cNvPr id="6" name="波線 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F39EA783-011B-45FA-8D24-22224543DF13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F39EA783-011B-45FA-8D24-22224543DF13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3799,7 +3882,7 @@
         <xdr:cNvPr id="10" name="テキスト ボックス 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3851,30 +3934,30 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>680788</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>166013</xdr:rowOff>
+      <xdr:colOff>517504</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>16334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>547310</xdr:colOff>
+      <xdr:colOff>384026</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>59495</xdr:rowOff>
+      <xdr:rowOff>86709</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="21" name="テキスト ボックス 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="19861182">
-          <a:off x="4300288" y="3526977"/>
+        <a:xfrm rot="19853309">
+          <a:off x="4137004" y="3554191"/>
           <a:ext cx="900665" cy="247268"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3932,7 +4015,7 @@
         <xdr:cNvPr id="22" name="正方形/長方形 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4005,7 +4088,7 @@
         <xdr:cNvPr id="23" name="直線矢印コネクタ 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4061,7 +4144,7 @@
         <xdr:cNvPr id="25" name="波線 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F39EA783-011B-45FA-8D24-22224543DF13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F39EA783-011B-45FA-8D24-22224543DF13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4119,22 +4202,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>401062</xdr:colOff>
+      <xdr:colOff>101705</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>80223</xdr:rowOff>
+      <xdr:rowOff>107437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>54428</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>435428</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>15180</xdr:rowOff>
+      <xdr:rowOff>42394</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="27" name="フローチャート: 磁気ディスク 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4142,7 +4225,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5735062" y="3087402"/>
+          <a:off x="5435705" y="3114616"/>
           <a:ext cx="1694437" cy="819421"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
@@ -4182,7 +4265,23 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ログインユーザ・エンプロイテーブル</a:t>
+            <a:t>ログインユーザ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>エンプロイテーブル</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4192,31 +4291,34 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>423896</xdr:colOff>
+      <xdr:colOff>192865</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>68037</xdr:rowOff>
+      <xdr:rowOff>163363</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>326571</xdr:colOff>
+      <xdr:colOff>101705</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>19073</xdr:rowOff>
+      <xdr:rowOff>77414</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="28" name="直線矢印コネクタ 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="31" idx="0"/>
+          <a:endCxn id="27" idx="2"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4043396" y="3429001"/>
-          <a:ext cx="1617175" cy="835501"/>
+          <a:off x="3812365" y="3524327"/>
+          <a:ext cx="1623340" cy="798516"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4260,7 +4362,7 @@
         <xdr:cNvPr id="29" name="テキスト ボックス 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4463,7 +4565,7 @@
         <xdr:cNvPr id="37" name="正方形/長方形 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4536,7 +4638,7 @@
         <xdr:cNvPr id="38" name="直線矢印コネクタ 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4592,7 +4694,7 @@
         <xdr:cNvPr id="39" name="波線 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F39EA783-011B-45FA-8D24-22224543DF13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F39EA783-011B-45FA-8D24-22224543DF13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4665,7 +4767,7 @@
         <xdr:cNvPr id="40" name="テキスト ボックス 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4732,7 +4834,7 @@
         <xdr:cNvPr id="47" name="フローチャート: 磁気ディスク 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4780,7 +4882,23 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ログインユーザ・エンプロイテーブル</a:t>
+            <a:t>ログインユーザ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>エンプロイテーブル</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4805,14 +4923,14 @@
         <xdr:cNvPr id="49" name="テキスト ボックス 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="19861182">
+        <a:xfrm rot="19379683">
           <a:off x="8031365" y="1583875"/>
           <a:ext cx="900665" cy="247268"/>
         </a:xfrm>
@@ -4856,31 +4974,33 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>503465</xdr:colOff>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>122464</xdr:rowOff>
+      <xdr:rowOff>30013</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:colOff>567068</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>68036</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="50" name="直線矢印コネクタ 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="47" idx="2"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7878536" y="1537607"/>
-          <a:ext cx="1333500" cy="762000"/>
+          <a:off x="7946571" y="1445156"/>
+          <a:ext cx="1356283" cy="922487"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4909,22 +5029,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>898073</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:colOff>830039</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>340179</xdr:colOff>
+      <xdr:colOff>163286</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>40820</xdr:rowOff>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4932,8 +5052,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4517573" y="3646714"/>
-          <a:ext cx="1156606" cy="639535"/>
+          <a:off x="4449539" y="3850821"/>
+          <a:ext cx="1047747" cy="503465"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4962,30 +5082,30 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>155549</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>144239</xdr:rowOff>
+      <xdr:colOff>114727</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>62597</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>375857</xdr:colOff>
+      <xdr:colOff>335035</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>37721</xdr:rowOff>
+      <xdr:rowOff>132972</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="26" name="テキスト ボックス 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="19861182">
-          <a:off x="4809192" y="4035882"/>
+        <a:xfrm rot="19873217">
+          <a:off x="4768370" y="4131133"/>
           <a:ext cx="900665" cy="247268"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5043,7 +5163,7 @@
         <xdr:cNvPr id="31" name="正方形/長方形 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5121,7 +5241,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5187,7 +5307,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5260,7 +5380,7 @@
         <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5316,7 +5436,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0D18DF-025F-41DB-96BB-221B78F44C62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A0D18DF-025F-41DB-96BB-221B78F44C62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5389,7 +5509,7 @@
         <xdr:cNvPr id="6" name="波線 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F39EA783-011B-45FA-8D24-22224543DF13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F39EA783-011B-45FA-8D24-22224543DF13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5471,7 +5591,7 @@
         <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31E424DF-9DFC-43BB-A310-ABF1A5E85690}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31E424DF-9DFC-43BB-A310-ABF1A5E85690}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5527,7 +5647,7 @@
         <xdr:cNvPr id="8" name="フローチャート: 磁気ディスク 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5609,31 +5729,34 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>127136</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>27293</xdr:rowOff>
+      <xdr:colOff>116374</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>87165</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>509919</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47276</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>5965</xdr:rowOff>
+      <xdr:rowOff>59893</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="0"/>
+          <a:endCxn id="8" idx="2"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4780779" y="1442436"/>
-          <a:ext cx="1063140" cy="686243"/>
+          <a:off x="4774099" y="1315890"/>
+          <a:ext cx="1302502" cy="829978"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5677,7 +5800,7 @@
         <xdr:cNvPr id="10" name="テキスト ボックス 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5728,22 +5851,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>628651</xdr:colOff>
+      <xdr:colOff>466725</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>46380</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5751,8 +5874,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5286376" y="1618005"/>
-          <a:ext cx="676274" cy="458445"/>
+          <a:off x="5124450" y="1581150"/>
+          <a:ext cx="971550" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5796,7 +5919,7 @@
         <xdr:cNvPr id="14" name="テキスト ボックス 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6136,8 +6259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:Q17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6150,316 +6273,316 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="40"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="43"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="42"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45"/>
     </row>
     <row r="4" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="49"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="48"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="50"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="52"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="51"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="53"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="55"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="54"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="53"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="55"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="54"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="55"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="54"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="53"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="55"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="54"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A11" s="53"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="55"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="54"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A12" s="53"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="55"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="54"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="53"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="55"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="54"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="53"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="55"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="54"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="53"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="55"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="54"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="53"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="55"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="54"/>
     </row>
     <row r="17" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="56"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="58"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="57"/>
     </row>
     <row r="19" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="49"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="48"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
@@ -6849,12 +6972,12 @@
       <c r="B40" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
+      <c r="C40" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
@@ -6872,12 +6995,12 @@
       <c r="B41" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="37" t="s">
+      <c r="C41" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -6951,7 +7074,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -7030,8 +7153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7044,316 +7167,316 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="40"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="43"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="42"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
+      <c r="B3" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45"/>
     </row>
     <row r="4" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="49"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="48"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="50"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="52"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="51"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="53"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="55"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="54"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="53"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="55"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="54"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="55"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="54"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="53"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="55"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="54"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A11" s="53"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="55"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="54"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A12" s="53"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="55"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="54"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="53"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="55"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="54"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="53"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="55"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="54"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="53"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="55"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="54"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="53"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="55"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="54"/>
     </row>
     <row r="17" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="56"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="58"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="57"/>
     </row>
     <row r="19" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="49"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="48"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
@@ -7376,7 +7499,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -7416,7 +7539,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -7498,7 +7621,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -7538,7 +7661,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -7560,14 +7683,14 @@
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
+        <v>110</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
@@ -7583,14 +7706,14 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="B32" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C32" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
+        <v>111</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -7652,7 +7775,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -7753,7 +7876,7 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -7793,7 +7916,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -7833,7 +7956,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -7873,7 +7996,7 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -7894,7 +8017,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -7955,7 +8078,7 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -8034,8 +8157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8048,563 +8171,563 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="40"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="43"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="42"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
+      <c r="B3" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45"/>
     </row>
     <row r="4" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="49"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="48"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="50"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="52"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="51"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="53"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="55"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="54"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="53"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="55"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="54"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="55"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="54"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="53"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="55"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="54"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A11" s="53"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="55"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="54"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A12" s="53"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="55"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="54"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="53"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="55"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="54"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="53"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="55"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="54"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="53"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="55"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="54"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="53"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="55"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="54"/>
     </row>
     <row r="17" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="56"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="58"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="57"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A18" s="50"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="52"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="51"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A19" s="53"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="55"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="54"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A20" s="53"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="55"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="54"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A21" s="53"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="55"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="54"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A22" s="53"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="55"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="54"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A23" s="53"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="55"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="54"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A24" s="53"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="55"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="54"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A25" s="53"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="55"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="54"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A26" s="53"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="54"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="55"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="54"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A27" s="53"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="55"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="54"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A28" s="53"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="54"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="55"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="53"/>
+      <c r="Q28" s="54"/>
     </row>
     <row r="29" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="56"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="57"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="58"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="57"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A30" s="54"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="54"/>
-      <c r="N30" s="54"/>
-      <c r="O30" s="54"/>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="54"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="53"/>
     </row>
     <row r="32" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="33" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="48"/>
-      <c r="N33" s="48"/>
-      <c r="O33" s="48"/>
-      <c r="P33" s="48"/>
-      <c r="Q33" s="49"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="47"/>
+      <c r="P33" s="47"/>
+      <c r="Q33" s="48"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
@@ -8627,7 +8750,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -8636,7 +8759,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -8669,7 +8792,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -8678,7 +8801,7 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -8692,7 +8815,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A38" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -8775,7 +8898,7 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A42" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -8817,7 +8940,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -8838,7 +8961,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -8847,7 +8970,7 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -8860,9 +8983,6 @@
       <c r="Q45" s="5"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A46" s="4" t="s">
-        <v>102</v>
-      </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -8882,7 +9002,7 @@
     </row>
     <row r="47" spans="1:17" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -8904,9 +9024,6 @@
       <c r="Q47" s="5"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A48" s="4" t="s">
-        <v>116</v>
-      </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -8925,6 +9042,9 @@
       <c r="Q48" s="5"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A49" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -8945,8 +9065,8 @@
       <c r="Q49" s="5"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A50" s="3" t="s">
-        <v>100</v>
+      <c r="A50" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -8955,7 +9075,7 @@
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
@@ -8968,9 +9088,6 @@
       <c r="Q50" s="5"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A51" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -8989,7 +9106,9 @@
       <c r="Q51" s="5"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A52" s="3"/>
+      <c r="A52" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="14"/>
@@ -9003,10 +9122,12 @@
       <c r="Q52" s="5"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A53" s="3"/>
+      <c r="A53" s="11" t="s">
+        <v>96</v>
+      </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I53" s="14"/>
       <c r="J53" s="13"/>
@@ -9036,7 +9157,7 @@
       <c r="A55" s="3"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I55" s="14"/>
       <c r="J55" s="13"/>
@@ -9066,7 +9187,7 @@
       <c r="A57" s="3"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I57" s="14"/>
       <c r="J57" s="13"/>
@@ -9082,7 +9203,7 @@
       <c r="A58" s="3"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I58" s="14"/>
       <c r="J58" s="13"/>
@@ -9134,7 +9255,7 @@
       <c r="P60" s="4"/>
       <c r="Q60" s="5"/>
     </row>
-    <row r="61" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A61" s="3"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -9142,8 +9263,8 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
-      <c r="H61" s="15" t="s">
-        <v>160</v>
+      <c r="H61" s="61" t="s">
+        <v>176</v>
       </c>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
@@ -9234,8 +9355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q60"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9248,316 +9369,316 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="40"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="43"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="42"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45"/>
     </row>
     <row r="4" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="49"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="48"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="50"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="52"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="51"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="53"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="55"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="54"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="53"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="55"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="54"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="55"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="54"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="53"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="55"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="54"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A11" s="53"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="55"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="54"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A12" s="53"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="55"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="54"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="53"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="55"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="54"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="53"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="55"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="54"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="53"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="55"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="54"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="53"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="55"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="54"/>
     </row>
     <row r="17" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="56"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="58"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="57"/>
     </row>
     <row r="19" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="49"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="48"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
@@ -9580,7 +9701,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -9590,7 +9711,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -9603,7 +9724,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -9613,7 +9734,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -9645,7 +9766,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -9655,7 +9776,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -9817,7 +9938,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -9827,7 +9948,7 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -9859,7 +9980,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -9869,7 +9990,7 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -9901,7 +10022,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -9911,7 +10032,7 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -9943,7 +10064,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -9953,7 +10074,7 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
@@ -9985,7 +10106,7 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -9995,7 +10116,7 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
@@ -10027,7 +10148,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -10037,7 +10158,7 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -10069,7 +10190,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -10079,7 +10200,7 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -10130,7 +10251,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -10140,7 +10261,7 @@
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
@@ -10237,7 +10358,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -10247,7 +10368,7 @@
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
@@ -10339,7 +10460,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -10349,7 +10470,7 @@
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
@@ -10432,73 +10553,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="28">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="18" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="29">
+        <v>2</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="29">
+        <v>3</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="29">
-        <v>1</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="17" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="30">
+        <v>4</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>151</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="30">
-        <v>2</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="30">
-        <v>3</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="31">
-        <v>4</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -10525,220 +10646,220 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="B1" s="24" t="s">
+      <c r="A1" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="60"/>
+      <c r="F1" s="59"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="29">
+      <c r="A2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="E2" s="17" t="s">
+      <c r="D2" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="19" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="30">
+      <c r="A3" s="29">
         <v>2</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="20" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="30">
+      <c r="A4" s="29">
         <v>3</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="16" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="29">
+        <v>4</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="29">
+        <v>5</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="29">
+        <v>6</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="29">
+        <v>7</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="E4" s="16" t="s">
+      <c r="D8" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="29">
+        <v>8</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="F4" s="21" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="30">
-        <v>4</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="16" t="s">
+      <c r="D9" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F9" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="29">
+        <v>9</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="30">
-        <v>5</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="30">
-        <v>6</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="30">
-        <v>7</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="30">
-        <v>8</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="30">
-        <v>9</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="20" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="31">
+      <c r="A11" s="30">
         <v>10</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="E11" s="22" t="s">
+      <c r="D11" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="22" t="s">
         <v>83</v>
       </c>
     </row>
@@ -10795,7 +10916,7 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -10806,7 +10927,7 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -10817,7 +10938,7 @@
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -10828,7 +10949,7 @@
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -10921,7 +11042,7 @@
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C27" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -10935,8 +11056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10947,109 +11068,109 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="59"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="B3" s="60"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="B4" s="20" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="21" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="22" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14" s="31"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="B16" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="B14" s="32"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>175</v>
-      </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>173</v>
+      <c r="A17" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
